--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_56_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -6402,7 +6402,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>PMS</t>
         </is>
       </c>
     </row>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_56_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PMS</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="55.88988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,197 +1397,289 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>37518</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>BSIU3148405</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>GLA</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
           <t>PMS</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>HAPPY BEE</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2018/2337</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1472629</v>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>39076</v>
+        <v>37520</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>PMLU9012917</t>
+          <t>RFCU2203764</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1711,30 +1704,30 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>HAPPY BEE</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2337</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N8" s="0"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,7 +1741,7 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1479087</v>
+        <v>1472643</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
@@ -1757,12 +1750,12 @@
       </c>
       <c r="W8" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y8" s="0" t="inlineStr">
@@ -1783,19 +1776,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>39077</v>
+        <v>37613</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>TCNU9796759</t>
+          <t>TCKU1619407</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -1820,30 +1813,30 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N9" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="d">
+        <v>2018-09-01T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1857,7 +1850,7 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1479088</v>
+        <v>1473316</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
@@ -1871,7 +1864,7 @@
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY (WET CONDITION)</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1892,19 +1885,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>39229</v>
+        <v>37613</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>TCNU8446761</t>
+          <t>TCKU1619407</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -1934,7 +1927,7 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -1942,17 +1935,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N10" s="0"/>
+      <c r="L10" s="4" t="d">
+        <v>2018-09-01T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
@@ -1966,21 +1959,21 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1479431</v>
+        <v>1473316</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; SCRATCH WITH NAILS FITTING 31 PCS </t>
+          <t>ROOF PANEL CUT 12'X5'</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -2001,19 +1994,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>39229</v>
+        <v>37616</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>TCNU8446761</t>
+          <t>CAIU2302758</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -2043,7 +2036,7 @@
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2051,17 +2044,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N11" s="0"/>
+      <c r="L11" s="4" t="d">
+        <v>2018-09-01T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2075,21 +2068,21 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1479431</v>
+        <v>1473319</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2110,19 +2103,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>39280</v>
+        <v>37652</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>TCNU8393065</t>
+          <t>BSIU2390836</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2152,7 +2145,7 @@
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2160,17 +2153,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N12" s="0"/>
+      <c r="L12" s="4" t="d">
+        <v>2018-09-02T00:00:00</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2184,7 +2177,7 @@
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0" t="n">
-        <v>1479619</v>
+        <v>1473587</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
@@ -2193,12 +2186,12 @@
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SAND DUST &amp; SCRATCH</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2219,19 +2212,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>39314</v>
+        <v>37697</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>TTNU9630610</t>
+          <t>BSIU2537378</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -2261,7 +2254,7 @@
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2269,17 +2262,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N13" s="0"/>
+      <c r="L13" s="4" t="d">
+        <v>2018-09-02T00:00:00</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
@@ -2293,7 +2286,7 @@
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0" t="n">
-        <v>1479678</v>
+        <v>1473901</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
@@ -2302,12 +2295,12 @@
       </c>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SAND DUST,</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2328,19 +2321,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>39454</v>
+        <v>37891</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>DRYU9667234</t>
+          <t>CAIU2568178</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -2365,30 +2358,30 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2471/2018</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N14" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2402,7 +2395,7 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1479960</v>
+        <v>1475025</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2411,12 +2404,12 @@
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY TYRE MARK &amp; NAILS 1 PCS,</t>
+          <t>FLOOR BOARD DIRTY &amp; ANIMUL FEED &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2437,11 +2430,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37518</v>
+        <v>38282</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSIU3148405</t>
+          <t>GIPU8222690</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2474,30 +2467,30 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>2018/2337</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N15" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="d">
+        <v>2018-09-09T00:00:00</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0</v>
@@ -2511,7 +2504,7 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1472629</v>
+        <v>1476826</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
@@ -2520,12 +2513,12 @@
       </c>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2546,11 +2539,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>37520</v>
+        <v>38451</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>RFCU2203764</t>
+          <t>BSIU2399279</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2583,30 +2576,30 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>2018/2337</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N16" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
@@ -2620,7 +2613,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1472643</v>
+        <v>1477345</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2629,12 +2622,12 @@
       </c>
       <c r="W16" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2655,19 +2648,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>37613</v>
+        <v>39043</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>TCKU1619407</t>
+          <t>PMLU9018242</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -2692,30 +2685,30 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N17" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0</v>
@@ -2729,7 +2722,7 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1473316</v>
+        <v>1478949</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2743,7 +2736,7 @@
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY (WET CONDITION)</t>
+          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2764,19 +2757,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>37613</v>
+        <v>39044</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>TCKU1619407</t>
+          <t>TRIU9159151</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2801,30 +2794,30 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N18" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2838,21 +2831,21 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1473316</v>
+        <v>1478950</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL CUT 12'X5'</t>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2873,19 +2866,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>37616</v>
+        <v>39044</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>CAIU2302758</t>
+          <t>TRIU9159151</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -2910,30 +2903,30 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N19" s="0"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
@@ -2947,21 +2940,21 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1473319</v>
+        <v>1478950</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2982,19 +2975,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>37652</v>
+        <v>39045</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSIU2390836</t>
+          <t>GAOU6026066</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -3019,30 +3012,30 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N20" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
@@ -3056,7 +3049,7 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1473587</v>
+        <v>1478951</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3070,7 +3063,7 @@
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3091,19 +3084,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>37697</v>
+        <v>39045</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSIU2537378</t>
+          <t>GAOU6026066</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3128,30 +3121,30 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N21" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
@@ -3165,21 +3158,21 @@
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1473901</v>
+        <v>1478951</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3200,19 +3193,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>37891</v>
+        <v>39046</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>CAIU2568178</t>
+          <t>CAXU9894537</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -3237,12 +3230,12 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>2471/2018</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3250,17 +3243,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+      <c r="L22" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3274,7 +3267,7 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1475025</v>
+        <v>1478952</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
@@ -3288,7 +3281,7 @@
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; ANIMUL FEED &amp; ODOUR</t>
+          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3309,19 +3302,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>38282</v>
+        <v>39046</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>GIPU8222690</t>
+          <t>CAXU9894537</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
@@ -3359,17 +3352,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L23" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N23" s="0"/>
+      <c r="L23" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0</v>
@@ -3383,21 +3376,21 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0" t="n">
-        <v>1476826</v>
+        <v>1478952</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3418,19 +3411,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>38451</v>
+        <v>39047</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSIU2399279</t>
+          <t>TCNU8803339</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -3468,17 +3461,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L24" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M24" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N24" s="0"/>
+      <c r="L24" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0</v>
@@ -3492,7 +3485,7 @@
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="0" t="n">
-        <v>1477345</v>
+        <v>1478953</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
@@ -3506,7 +3499,7 @@
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3527,11 +3520,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>39043</v>
+        <v>39048</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>PMLU9018242</t>
+          <t>TCNU9701223</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3577,15 +3570,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
+      <c r="L25" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M25" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N25" s="0"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
         <v>76</v>
       </c>
@@ -3601,7 +3594,7 @@
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0" t="n">
-        <v>1478949</v>
+        <v>1478954</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
@@ -3636,11 +3629,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>39044</v>
+        <v>39048</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>TRIU9159151</t>
+          <t>TCNU9701223</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3686,15 +3679,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L26" s="0" t="d">
+      <c r="L26" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N26" s="0"/>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
         <v>76</v>
       </c>
@@ -3710,21 +3703,21 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1478950</v>
+        <v>1478954</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
+          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3745,11 +3738,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>39044</v>
+        <v>39049</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TRIU9159151</t>
+          <t>TCNU9123589</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3795,15 +3788,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L27" s="0" t="d">
+      <c r="L27" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N27" s="0"/>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
         <v>76</v>
       </c>
@@ -3819,21 +3812,21 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1478950</v>
+        <v>1478956</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3854,11 +3847,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>39045</v>
+        <v>39050</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>GAOU6026066</t>
+          <t>TCNU9633941</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3904,15 +3897,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L28" s="0" t="d">
+      <c r="L28" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M28" s="0" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N28" s="0"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
         <v>76</v>
       </c>
@@ -3928,7 +3921,7 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1478951</v>
+        <v>1478957</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
@@ -3942,7 +3935,7 @@
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST </t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3963,11 +3956,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>39045</v>
+        <v>39050</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>GAOU6026066</t>
+          <t>TCNU9633941</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4013,15 +4006,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L29" s="0" t="d">
+      <c r="L29" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M29" s="0" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N29" s="0"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
         <v>76</v>
       </c>
@@ -4037,7 +4030,7 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1478951</v>
+        <v>1478957</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -4072,11 +4065,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>39046</v>
+        <v>39051</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>CAXU9894537</t>
+          <t>TCNU6232246</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4122,15 +4115,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L30" s="0" t="d">
+      <c r="L30" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M30" s="0" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N30" s="0"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
         <v>76</v>
       </c>
@@ -4146,7 +4139,7 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1478952</v>
+        <v>1478960</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4181,11 +4174,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>39046</v>
+        <v>39052</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>CAXU9894537</t>
+          <t>PMLU9015475</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4231,15 +4224,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L31" s="0" t="d">
+      <c r="L31" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M31" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N31" s="0"/>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
         <v>76</v>
       </c>
@@ -4255,21 +4248,21 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1478952</v>
+        <v>1478961</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4290,11 +4283,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>39047</v>
+        <v>39052</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TCNU8803339</t>
+          <t>PMLU9015475</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4340,15 +4333,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L32" s="0" t="d">
+      <c r="L32" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
         <v>76</v>
       </c>
@@ -4364,21 +4357,21 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1478953</v>
+        <v>1478961</v>
       </c>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
+          <t>BOTH DOOR LOCKING BAR BENT 03 PCS</t>
         </is>
       </c>
       <c r="Y32" s="0" t="inlineStr">
@@ -4399,11 +4392,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>39048</v>
+        <v>39053</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>TCNU9701223</t>
+          <t>PMLU9007042</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4449,15 +4442,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L33" s="0" t="d">
+      <c r="L33" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
         <v>76</v>
       </c>
@@ -4473,7 +4466,7 @@
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1478954</v>
+        <v>1478962</v>
       </c>
       <c r="V33" s="0" t="inlineStr">
         <is>
@@ -4487,7 +4480,7 @@
       </c>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; COTTON DUST</t>
         </is>
       </c>
       <c r="Y33" s="0" t="inlineStr">
@@ -4508,11 +4501,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>39048</v>
+        <v>39076</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>TCNU9701223</t>
+          <t>PMLU9012917</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4558,15 +4551,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L34" s="0" t="d">
+      <c r="L34" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
         <v>76</v>
       </c>
@@ -4582,21 +4575,21 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1478954</v>
+        <v>1479087</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4617,11 +4610,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>39049</v>
+        <v>39077</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>TCNU9123589</t>
+          <t>TCNU9796759</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4667,15 +4660,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L35" s="0" t="d">
+      <c r="L35" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N35" s="0"/>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
         <v>76</v>
       </c>
@@ -4691,7 +4684,7 @@
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1478956</v>
+        <v>1479088</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4705,7 +4698,7 @@
       </c>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST</t>
         </is>
       </c>
       <c r="Y35" s="0" t="inlineStr">
@@ -4726,11 +4719,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>39050</v>
+        <v>39193</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>TCNU9633941</t>
+          <t>TTNU9450100</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4763,30 +4756,30 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N36" s="0"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
@@ -4800,7 +4793,7 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1478957</v>
+        <v>1479339</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
@@ -4814,7 +4807,7 @@
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4835,11 +4828,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>39050</v>
+        <v>39193</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>TCNU9633941</t>
+          <t>TTNU9450100</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4872,30 +4865,30 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N37" s="0"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
@@ -4909,21 +4902,21 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1478957</v>
+        <v>1479339</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
+          <t>FLOOR BOARD NAILS  FITTING VERYES PLS</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4944,11 +4937,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>39051</v>
+        <v>39193</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>TCNU6232246</t>
+          <t>TTNU9450100</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -4981,30 +4974,30 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N38" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -5018,21 +5011,21 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1478960</v>
+        <v>1479339</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; COTTON DUST</t>
+          <t>BOTH DOOR PANEL RUSTED &amp;  CORROSION</t>
         </is>
       </c>
       <c r="Y38" s="0" t="inlineStr">
@@ -5053,11 +5046,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>39052</v>
+        <v>39202</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>PMLU9015475</t>
+          <t>TCNU8602870</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5090,30 +5083,30 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N39" s="0"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
@@ -5127,7 +5120,7 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1478961</v>
+        <v>1479372</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
@@ -5141,7 +5134,7 @@
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY BY SAND DUST</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5162,11 +5155,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>39052</v>
+        <v>39202</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>PMLU9015475</t>
+          <t>TCNU8602870</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5199,30 +5192,30 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L40" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N40" s="0"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
@@ -5236,21 +5229,21 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1478961</v>
+        <v>1479372</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W40" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X40" s="0" t="inlineStr">
         <is>
-          <t>BOTH DOOR LOCKING BAR BENT 03 PCS</t>
+          <t>FLOOR BOARD NAILS FITTING 04 PES</t>
         </is>
       </c>
       <c r="Y40" s="0" t="inlineStr">
@@ -5271,11 +5264,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>39053</v>
+        <v>39229</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>PMLU9007042</t>
+          <t>TCNU8446761</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5308,30 +5301,30 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2687/2018</t>
+          <t>2018/2687</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N41" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0</v>
@@ -5345,7 +5338,7 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1478962</v>
+        <v>1479431</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
@@ -5359,7 +5352,7 @@
       </c>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; COTTON DUST</t>
+          <t>FLOOR BOARD DIRTY &amp; SCRATCH WITH NAILS FITTING 31 PCS </t>
         </is>
       </c>
       <c r="Y41" s="0" t="inlineStr">
@@ -5380,11 +5373,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>39193</v>
+        <v>39229</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>TTNU9450100</t>
+          <t>TCNU8446761</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5430,15 +5423,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L42" s="0" t="d">
+      <c r="L42" s="4" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="M42" s="0" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N42" s="0"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
         <v>75</v>
       </c>
@@ -5454,21 +5447,21 @@
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1479339</v>
+        <v>1479431</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>INTERIOR PANEL INK DIRTY</t>
         </is>
       </c>
       <c r="Y42" s="0" t="inlineStr">
@@ -5489,11 +5482,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>39193</v>
+        <v>39280</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>TTNU9450100</t>
+          <t>TCNU8393065</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5539,17 +5532,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L43" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
+      <c r="L43" s="4" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N43" s="0"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -5563,7 +5556,7 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1479339</v>
+        <v>1479619</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
@@ -5572,12 +5565,12 @@
       </c>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS  FITTING VERYES PLS</t>
+          <t>FLOOR BOARD DIRTY BY SAND DUST &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5598,19 +5591,19 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39193</v>
+        <v>39296</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>TTNU9450100</t>
+          <t>TCKU3224303</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -5648,17 +5641,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L44" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N44" s="0"/>
+      <c r="L44" s="4" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -5672,21 +5665,21 @@
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1479339</v>
+        <v>1479651</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>BOTH DOOR PANEL RUSTED &amp;  CORROSION</t>
+          <t>FLOOR BOARD CHEMICAL ODOUR,</t>
         </is>
       </c>
       <c r="Y44" s="0" t="inlineStr">
@@ -5707,11 +5700,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>39202</v>
+        <v>39314</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>TCNU8602870</t>
+          <t>TTNU9630610</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5757,17 +5750,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L45" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N45" s="0"/>
+      <c r="L45" s="4" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
@@ -5781,7 +5774,7 @@
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0" t="n">
-        <v>1479372</v>
+        <v>1479678</v>
       </c>
       <c r="V45" s="0" t="inlineStr">
         <is>
@@ -5790,12 +5783,12 @@
       </c>
       <c r="W45" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SAND DUST</t>
+          <t>FLOOR BOARD DIRTY BY SAND DUST,</t>
         </is>
       </c>
       <c r="Y45" s="0" t="inlineStr">
@@ -5816,19 +5809,19 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>39202</v>
+        <v>39355</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>TCNU8602870</t>
+          <t>GAOU2076407</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -5866,17 +5859,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L46" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N46" s="0"/>
+      <c r="L46" s="4" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -5890,7 +5883,7 @@
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0" t="n">
-        <v>1479372</v>
+        <v>1479738</v>
       </c>
       <c r="V46" s="0" t="inlineStr">
         <is>
@@ -5899,12 +5892,12 @@
       </c>
       <c r="W46" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS FITTING 04 PES</t>
+          <t>FLOOR BOARD DIRTY &amp; ODOUR,</t>
         </is>
       </c>
       <c r="Y46" s="0" t="inlineStr">
@@ -5925,19 +5918,19 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>39296</v>
+        <v>39454</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>TCKU3224303</t>
+          <t>DRYU9667234</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -5975,17 +5968,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L47" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
+      <c r="L47" s="4" t="d">
+        <v>2018-09-16T00:00:00</v>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N47" s="0"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
@@ -5999,7 +5992,7 @@
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="0" t="n">
-        <v>1479651</v>
+        <v>1479960</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
@@ -6013,7 +6006,7 @@
       </c>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD CHEMICAL ODOUR,</t>
+          <t>FLOOR BOARD DIRTY BY TYRE MARK &amp; NAILS 1 PCS,</t>
         </is>
       </c>
       <c r="Y47" s="0" t="inlineStr">
@@ -6034,11 +6027,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>39355</v>
+        <v>39579</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>GAOU2076407</t>
+          <t>BSIU3150969</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6071,30 +6064,30 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2018/2687</t>
+          <t>2675/2018</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L48" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N48" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="d">
+        <v>2018-09-16T00:00:00</v>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
@@ -6108,7 +6101,7 @@
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0" t="n">
-        <v>1479738</v>
+        <v>1480159</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
@@ -6117,12 +6110,12 @@
       </c>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X48" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; ODOUR,</t>
+          <t>FLOOR BOARD DIRTY BY RICE DUST</t>
         </is>
       </c>
       <c r="Y48" s="0" t="inlineStr">
@@ -6143,19 +6136,19 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>39579</v>
+        <v>39790</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>BSIU3150969</t>
+          <t>CRSU9002037</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -6180,12 +6173,12 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2675/2018</t>
+          <t>2687/2018</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -6193,17 +6186,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L49" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N49" s="0"/>
+      <c r="L49" s="4" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -6217,7 +6210,7 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0" t="n">
-        <v>1480159</v>
+        <v>1480510</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
@@ -6226,12 +6219,12 @@
       </c>
       <c r="W49" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY RICE DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST,</t>
         </is>
       </c>
       <c r="Y49" s="0" t="inlineStr">
@@ -6245,115 +6238,6 @@
         </is>
       </c>
       <c r="AA49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="n">
-        <v>39790</v>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>CRSU9002037</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D50" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="G50" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I50" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="J50" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="K50" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L50" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0" t="n">
-        <v>1480510</v>
-      </c>
-      <c r="V50" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W50" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="X50" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; COTTON DUST,</t>
-        </is>
-      </c>
-      <c r="Y50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA50" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6380,23 +6264,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -6406,78 +6290,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>PMS</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>GLA</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>PMS</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -6493,72 +6416,31 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="0" t="n">
         <v>40</v>
       </c>
     </row>
